--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1403.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1403.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.80878044625075</v>
+        <v>1.189171195030212</v>
       </c>
       <c r="B1">
-        <v>2.559130204229298</v>
+        <v>1.934024691581726</v>
       </c>
       <c r="C1">
-        <v>2.773740425579831</v>
+        <v>6.454429149627686</v>
       </c>
       <c r="D1">
-        <v>3.316904656074658</v>
+        <v>2.288463115692139</v>
       </c>
       <c r="E1">
-        <v>1.187581731607755</v>
+        <v>1.194097876548767</v>
       </c>
     </row>
   </sheetData>
